--- a/29/After_Soc_EEH2.xlsx
+++ b/29/After_Soc_EEH2.xlsx
@@ -572,124 +572,124 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3300293990454395</v>
+        <v>0.3300293990455044</v>
       </c>
       <c r="D2" t="n">
-        <v>1.345166726439771</v>
+        <v>1.34516672643945</v>
       </c>
       <c r="E2" t="n">
-        <v>1.477163594023644</v>
+        <v>1.477163594023925</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5307208525408523</v>
+        <v>0.530720852544206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.49159967461034</v>
+        <v>0.4915996746075805</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4688880598111041</v>
+        <v>0.4688880598110393</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5301827258034335</v>
+        <v>0.5301827258028894</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5666276287761756</v>
+        <v>0.5666276287758754</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5795112266801897</v>
+        <v>0.5795112266798459</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3634223646856445</v>
+        <v>0.3634223646855285</v>
       </c>
       <c r="M2" t="n">
-        <v>0.180407144233676</v>
+        <v>0.1804071442333829</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1035491458110905</v>
+        <v>0.1035491458112167</v>
       </c>
       <c r="O2" t="n">
-        <v>0.103666218676451</v>
+        <v>0.1036662186763984</v>
       </c>
       <c r="P2" t="n">
-        <v>0.262093078970238</v>
+        <v>0.2620930789699512</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4872902549851534</v>
+        <v>0.4872902549862223</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3602708757051609</v>
+        <v>0.3602708757045327</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4945261377515031</v>
+        <v>0.4945261377515491</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5840611587072546</v>
+        <v>0.5840611587072106</v>
       </c>
       <c r="U2" t="n">
-        <v>3.482976417523665</v>
+        <v>3.482976417523678</v>
       </c>
       <c r="V2" t="n">
-        <v>4.700180603619791</v>
+        <v>4.700180603619246</v>
       </c>
       <c r="W2" t="n">
-        <v>1.34808860671507</v>
+        <v>1.348088606715493</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3476141877418362</v>
+        <v>0.3476141877418301</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5431380265112913</v>
+        <v>0.5431380265110128</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2467271390798044</v>
+        <v>0.2467271390797079</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6103410175559177</v>
+        <v>0.6103410175566898</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.175458129579885</v>
+        <v>1.175458129579897</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6724138532121601</v>
+        <v>0.6724138532102535</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2729964202906721</v>
+        <v>0.2729964202905973</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1428878453540574</v>
+        <v>0.142887845353708</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.540826177025383</v>
+        <v>3.540826177024762</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.3031364790082486</v>
+        <v>0.3031364790078957</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2230641605075914</v>
+        <v>0.2230641605077117</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1995954416100137</v>
+        <v>0.19959544161005</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.3924919850707835</v>
+        <v>0.3924919850707883</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1753718162320013</v>
+        <v>0.1753718162320772</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.3692213636169234</v>
+        <v>0.3692213636164817</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.4248302708423652</v>
+        <v>0.4248302708426683</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.2751081591956338</v>
+        <v>0.2751081591952752</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.073738700720353</v>
+        <v>7.073738700720373</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.06542174447940573</v>
+        <v>0.06542174447923776</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -697,124 +697,124 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3952886379730065</v>
+        <v>0.395288637973053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5734748169999853</v>
+        <v>0.5734748169994398</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1557885650362795</v>
+        <v>0.1557885650368029</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08661694040031971</v>
+        <v>0.08661694040012498</v>
       </c>
       <c r="G3" t="n">
-        <v>0.111471225936248</v>
+        <v>0.1114712259355609</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1507234682766843</v>
+        <v>0.150723468276872</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1998024699690198</v>
+        <v>0.1998024699689856</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08407149911477528</v>
+        <v>0.08407149911424755</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0811253333463714</v>
+        <v>0.08112533334547607</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9452282887096388</v>
+        <v>0.9452282887093909</v>
       </c>
       <c r="M3" t="n">
-        <v>1.147282226811266</v>
+        <v>1.147282226812801</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09531231311158636</v>
+        <v>0.09531231311111711</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7023854842053807</v>
+        <v>0.7023854842048172</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6475037288990168</v>
+        <v>0.6475037288992386</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5097481828009278</v>
+        <v>0.5097481828004489</v>
       </c>
       <c r="R3" t="n">
-        <v>0.102400561892923</v>
+        <v>0.1024005618928778</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1581885330126844</v>
+        <v>0.1581885330125739</v>
       </c>
       <c r="T3" t="n">
-        <v>0.264453000759684</v>
+        <v>0.2644530007594036</v>
       </c>
       <c r="U3" t="n">
-        <v>1.008743592548216</v>
+        <v>1.008743592548196</v>
       </c>
       <c r="V3" t="n">
-        <v>1.012081337403949</v>
+        <v>1.01208133740393</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1019952906733709</v>
+        <v>0.1019952906738091</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0915249596101365</v>
+        <v>0.09152495960938947</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3768251610606886</v>
+        <v>0.3768251610609636</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.178426054065596</v>
+        <v>1.178426054065654</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1845859836977306</v>
+        <v>0.1845859836978053</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1524406905086635</v>
+        <v>0.1524406905084621</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1360325755740099</v>
+        <v>0.1360325755741138</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1997980497020781</v>
+        <v>0.1997980497020589</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.09009069724363998</v>
+        <v>0.0900906972442706</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.85596311935056</v>
+        <v>3.855963119350414</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.2870132951350619</v>
+        <v>0.2870132951354194</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.743673885055697</v>
+        <v>2.743673885055668</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3664263640202778</v>
+        <v>0.3664263640206897</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1355625545021294</v>
+        <v>0.1355625545025159</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2505811118903543</v>
+        <v>0.2505811118900955</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1232476659597311</v>
+        <v>0.1232476659602052</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.4908201174019195</v>
+        <v>0.4908201174020879</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.4955720507754214</v>
+        <v>0.4955720507752727</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.117147814518543</v>
+        <v>1.11714781451892</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.702691727313531</v>
+        <v>1.702691727313599</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -822,124 +822,124 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1675431699991597</v>
+        <v>0.1675431699990902</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1376952808931086</v>
+        <v>0.1376952808928577</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1442973160193886</v>
+        <v>0.1442973160192599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1225488643956853</v>
+        <v>0.1225488643953089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1336485731376152</v>
+        <v>0.1336485731372677</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1344779878947334</v>
+        <v>0.1344779878951907</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1605729939123685</v>
+        <v>0.1605729939126307</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07559119374974493</v>
+        <v>0.07559119375052407</v>
       </c>
       <c r="K4" t="n">
-        <v>2.203354842884606</v>
+        <v>2.203354842883916</v>
       </c>
       <c r="L4" t="n">
-        <v>3.459195605534038</v>
+        <v>3.459195605532802</v>
       </c>
       <c r="M4" t="n">
-        <v>1.668159364762874</v>
+        <v>1.668159364762361</v>
       </c>
       <c r="N4" t="n">
-        <v>1.370503858358342</v>
+        <v>1.370503858358388</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2424712956873717</v>
+        <v>0.2424712956875356</v>
       </c>
       <c r="P4" t="n">
-        <v>0.460802201305844</v>
+        <v>0.4608022013058822</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8086653819463289</v>
+        <v>0.8086653819463121</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4484872023596765</v>
+        <v>0.4484872023596363</v>
       </c>
       <c r="S4" t="n">
-        <v>1.45160941286744</v>
+        <v>1.451609412867345</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8953872912687382</v>
+        <v>0.895387291268762</v>
       </c>
       <c r="U4" t="n">
-        <v>3.75073328685769</v>
+        <v>3.750733286857666</v>
       </c>
       <c r="V4" t="n">
-        <v>9.120213726080893</v>
+        <v>9.120213726080571</v>
       </c>
       <c r="W4" t="n">
-        <v>4.8755734102415</v>
+        <v>4.87557341024164</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4536115979739371</v>
+        <v>0.4536115979737823</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.207099251174722</v>
+        <v>0.2070992511736839</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9484372493445121</v>
+        <v>0.948437249344817</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.896483055737934</v>
+        <v>1.896483055738313</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8774409642043984</v>
+        <v>0.8774409642049407</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1585036298692313</v>
+        <v>0.1585036298690564</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.442917394806111</v>
+        <v>1.442917394806285</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.606723114428544</v>
+        <v>4.606723114428914</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9156743917779685</v>
+        <v>0.9156743917779664</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.3246003641854077</v>
+        <v>0.3246003641861303</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.127632978783776</v>
+        <v>1.127632978783697</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.583600219319537</v>
+        <v>1.583600219319518</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2091990966334756</v>
+        <v>0.2091990966335682</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.2300929860016553</v>
+        <v>0.2300929860016938</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1837984488421468</v>
+        <v>0.183798448842284</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.8751967059868144</v>
+        <v>0.8751967059871407</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.172198013605457</v>
+        <v>2.172198013605031</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.366041938393943</v>
+        <v>8.366041938393801</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.07654958276524183</v>
+        <v>0.07654958276581468</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -947,124 +947,124 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1130151938381949</v>
+        <v>0.1130151938381787</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1212621788132686</v>
+        <v>0.1212621788132916</v>
       </c>
       <c r="E5" t="n">
-        <v>0.159838213809515</v>
+        <v>0.1598382138095238</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1112084001158217</v>
+        <v>0.1112084001157274</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08414285800305425</v>
+        <v>0.08414285800294027</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06736992021121792</v>
+        <v>0.06736992021142028</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08604071987268183</v>
+        <v>0.08604071987263624</v>
       </c>
       <c r="J5" t="n">
-        <v>5.416024318606723</v>
+        <v>5.416024318606753</v>
       </c>
       <c r="K5" t="n">
-        <v>9.39753470771902</v>
+        <v>9.397534707719279</v>
       </c>
       <c r="L5" t="n">
-        <v>4.504389048673113</v>
+        <v>4.50438904867322</v>
       </c>
       <c r="M5" t="n">
-        <v>3.270551090888365</v>
+        <v>3.270551090888266</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2915118692110384</v>
+        <v>0.2915118692110826</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6990240641899689</v>
+        <v>0.6990240641869541</v>
       </c>
       <c r="P5" t="n">
-        <v>0.852863434805947</v>
+        <v>0.8528634348051988</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.226945198120165</v>
+        <v>1.226945198119687</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2772792691962236</v>
+        <v>0.2772792691963133</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1675422451835633</v>
+        <v>0.1675422451835597</v>
       </c>
       <c r="T5" t="n">
-        <v>6.528597747774001</v>
+        <v>6.528597747773993</v>
       </c>
       <c r="U5" t="n">
-        <v>18.06910140224824</v>
+        <v>18.06910140224836</v>
       </c>
       <c r="V5" t="n">
-        <v>2.721224188409944</v>
+        <v>2.721224188410133</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7942771094371761</v>
+        <v>0.7942771094372437</v>
       </c>
       <c r="X5" t="n">
-        <v>2.445925567492663</v>
+        <v>2.445925567492731</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3928224951657333</v>
+        <v>0.3928224951661912</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1148450714029516</v>
+        <v>0.1148450714029018</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2613530722369669</v>
+        <v>0.2613530722371386</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3349201438310428</v>
+        <v>0.3349201438310608</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.08468202070752343</v>
+        <v>0.08468202070739268</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1465399492563187</v>
+        <v>0.1465399492575628</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.09485578406254316</v>
+        <v>0.09485578406212669</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.853537131760919</v>
+        <v>2.853537131761023</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3705532098525893</v>
+        <v>0.370553209852748</v>
       </c>
       <c r="AH5" t="n">
-        <v>12.70577967096742</v>
+        <v>12.70577967096738</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.5237664875688874</v>
+        <v>0.523766487568891</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1593960207820987</v>
+        <v>0.159396020781562</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5782230689538923</v>
+        <v>0.578223068953882</v>
       </c>
       <c r="AL5" t="n">
-        <v>6.376965593894447</v>
+        <v>6.376965593894387</v>
       </c>
       <c r="AM5" t="n">
-        <v>4.410581373795856</v>
+        <v>4.410581373795875</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1395464512495406</v>
+        <v>0.1395464512493129</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.666051287757573</v>
+        <v>1.666051287757601</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.03240333730934802</v>
+        <v>0.03240333730924515</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -1072,124 +1072,124 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2445719261094185</v>
+        <v>0.2445719261095776</v>
       </c>
       <c r="D6" t="n">
-        <v>5.03937429421265</v>
+        <v>5.039374294212809</v>
       </c>
       <c r="E6" t="n">
-        <v>9.440678540887248</v>
+        <v>9.440678540887305</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4026825064011353</v>
+        <v>0.4026825064010495</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3460421448725908</v>
+        <v>0.3460421448729117</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3206472668555699</v>
+        <v>0.3206472668552533</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0733745069268029</v>
+        <v>0.07337450692669455</v>
       </c>
       <c r="J6" t="n">
-        <v>0.226801922873023</v>
+        <v>0.2268019228725462</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3389932679022614</v>
+        <v>0.3389932679024996</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8538473542028339</v>
+        <v>0.8538473542035429</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8733461673625578</v>
+        <v>0.8733461673624826</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3875102182250514</v>
+        <v>0.3875102182250773</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7000396143594358</v>
+        <v>0.7000396143596614</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6811884351448143</v>
+        <v>0.6811884351449219</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.07659660229985045</v>
+        <v>0.07659660229943047</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1686550391049489</v>
+        <v>0.168655039105019</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2114704206766246</v>
+        <v>0.2114704206765214</v>
       </c>
       <c r="T6" t="n">
-        <v>0.505431340575927</v>
+        <v>0.505431340575714</v>
       </c>
       <c r="U6" t="n">
-        <v>6.632617135844799</v>
+        <v>6.632617135845345</v>
       </c>
       <c r="V6" t="n">
-        <v>4.179046709801908</v>
+        <v>4.179046709802061</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6181473673566364</v>
+        <v>0.6181473673567722</v>
       </c>
       <c r="X6" t="n">
-        <v>1.464180264725429</v>
+        <v>1.464180264725575</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05832973975417999</v>
+        <v>0.05832973975343692</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.343161052636787</v>
+        <v>7.343161052636747</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.371669898298956</v>
+        <v>0.3716698982988931</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6324727096690944</v>
+        <v>0.6324727096680597</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.08878041169261944</v>
+        <v>0.08878041169272279</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3505931192270814</v>
+        <v>0.3505931192271949</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3431256952774281</v>
+        <v>0.343125695277667</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9238415795249023</v>
+        <v>0.9238415795245704</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1488903600513496</v>
+        <v>0.1488903600510091</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1970382132315702</v>
+        <v>0.1970382132315322</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.2624304279892189</v>
+        <v>0.2624304279892831</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.09003938846115883</v>
+        <v>0.09003938846084138</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.2261208710254465</v>
+        <v>0.2261208710255309</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.1644079721205229</v>
+        <v>0.1644079721200976</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.261644565720648</v>
+        <v>1.261644565720694</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.337178452985886</v>
+        <v>3.337178452985944</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.960682093845552</v>
+        <v>6.960682093845544</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.1067559157194047</v>
+        <v>0.1067559157192997</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -1197,124 +1197,124 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1484832706891386</v>
+        <v>0.1484832706892159</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1699099483573302</v>
+        <v>0.1699099483571757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.134489205736198</v>
+        <v>0.134489205735645</v>
       </c>
       <c r="F7" t="n">
-        <v>0.194530133423013</v>
+        <v>0.1945301334232865</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1398852547191821</v>
+        <v>0.1398852547183509</v>
       </c>
       <c r="H7" t="n">
-        <v>1.457924068156938</v>
+        <v>1.457924068157158</v>
       </c>
       <c r="I7" t="n">
-        <v>1.863693055752908</v>
+        <v>1.863693055752841</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6080685363694932</v>
+        <v>0.6080685363694579</v>
       </c>
       <c r="K7" t="n">
-        <v>2.021014174616889</v>
+        <v>2.021014174616859</v>
       </c>
       <c r="L7" t="n">
-        <v>2.810665357548459</v>
+        <v>2.810665357548625</v>
       </c>
       <c r="M7" t="n">
-        <v>1.061605845012078</v>
+        <v>1.061605845012257</v>
       </c>
       <c r="N7" t="n">
-        <v>1.018273408201438</v>
+        <v>1.018273408201115</v>
       </c>
       <c r="O7" t="n">
-        <v>1.062025385920162</v>
+        <v>1.062025385920141</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3445165749021701</v>
+        <v>0.3445165749015182</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4083781115037278</v>
+        <v>0.4083781115037946</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3375056045644786</v>
+        <v>0.3375056045648049</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3895901787907269</v>
+        <v>0.3895901787906534</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4010368140738577</v>
+        <v>0.4010368140737856</v>
       </c>
       <c r="U7" t="n">
-        <v>1.065358394728566</v>
+        <v>1.065358394728288</v>
       </c>
       <c r="V7" t="n">
-        <v>1.333269272898354</v>
+        <v>1.333269272896846</v>
       </c>
       <c r="W7" t="n">
-        <v>1.122406764888092</v>
+        <v>1.122406764888135</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3659991467593548</v>
+        <v>0.3659991467594065</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1437097125726004</v>
+        <v>0.1437097125727442</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.4445744946594699</v>
+        <v>0.4445744946597067</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2861977006431447</v>
+        <v>0.2861977006431901</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7836055790288988</v>
+        <v>0.7836055790289919</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1363330600900995</v>
+        <v>0.1363330600903008</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.3844727170394048</v>
+        <v>0.3844727170394348</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2572207752971779</v>
+        <v>0.2572207752972629</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.725480836406522</v>
+        <v>2.72548083640649</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.68560943127066</v>
+        <v>0.6856094312707079</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.5136898130828689</v>
+        <v>0.513689813082968</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.8771901240260204</v>
+        <v>0.8771901240262254</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6615776706002322</v>
+        <v>0.6615776706000789</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.145800936531558</v>
+        <v>1.14580093653161</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.8607223344763969</v>
+        <v>0.8607223344764718</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.6639485132400532</v>
+        <v>0.6639485132400567</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.2919153394000912</v>
+        <v>0.2919153394002045</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.822739553965311</v>
+        <v>4.822739553965341</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.07249740481377867</v>
+        <v>0.07249740481374985</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -1322,124 +1322,124 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04852095888091865</v>
+        <v>0.04852095888178116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05591097552868337</v>
+        <v>0.05591097552830652</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07174555713834442</v>
+        <v>0.07174555713914069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09977288185906305</v>
+        <v>0.09977288185932555</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1086111565010165</v>
+        <v>0.1086111565001803</v>
       </c>
       <c r="H8" t="n">
-        <v>2.364473792284395</v>
+        <v>2.364473792284249</v>
       </c>
       <c r="I8" t="n">
-        <v>3.312845125906378</v>
+        <v>3.312845125908201</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2969256275704624</v>
+        <v>0.296925627570175</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06550016345631653</v>
+        <v>0.06550016345613772</v>
       </c>
       <c r="L8" t="n">
-        <v>1.279370010905648</v>
+        <v>1.279370010902782</v>
       </c>
       <c r="M8" t="n">
-        <v>1.643309525830892</v>
+        <v>1.643309525833087</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6778055963396359</v>
+        <v>0.6778055963397348</v>
       </c>
       <c r="O8" t="n">
-        <v>0.468348635077909</v>
+        <v>0.4683486350776223</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3519274335768998</v>
+        <v>0.3519274335761347</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1996619675365709</v>
+        <v>0.1996619675359454</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1178599690425963</v>
+        <v>0.1178599690426812</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4895257397410595</v>
+        <v>0.4895257397410491</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4479002594502873</v>
+        <v>0.4479002594503043</v>
       </c>
       <c r="U8" t="n">
-        <v>11.09021967845915</v>
+        <v>11.09021967845919</v>
       </c>
       <c r="V8" t="n">
-        <v>16.59017638226999</v>
+        <v>16.59017638227</v>
       </c>
       <c r="W8" t="n">
-        <v>1.929726961252959</v>
+        <v>1.929726961252973</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2391948878744166</v>
+        <v>0.239194887874311</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9194157094611762</v>
+        <v>0.9194157094611043</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2505087979595055</v>
+        <v>0.2505087979600146</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.238534008533471</v>
+        <v>2.238534008533272</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6226413645508314</v>
+        <v>0.6226413645505944</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.070633780075507</v>
+        <v>2.070633780075497</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2589345653865852</v>
+        <v>0.25893456538658</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3400071139210223</v>
+        <v>0.340007113920683</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.214343679680106</v>
+        <v>1.214343679679822</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7087981615889986</v>
+        <v>0.7087981615889495</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.065233437151507</v>
+        <v>1.065233437151446</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.127262696535994</v>
+        <v>0.1272626965360836</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.6030870094500342</v>
+        <v>0.6030870094499705</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.4209081623481358</v>
+        <v>0.4209081623501501</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.1230201125671924</v>
+        <v>0.1230201125673944</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.6689087697160804</v>
+        <v>0.668908769716137</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.214687917359172</v>
+        <v>1.214687917359211</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.9697540989769756</v>
+        <v>0.9697540989769413</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.06771907979590634</v>
+        <v>0.06771907979590508</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -1447,124 +1447,124 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08972256750902004</v>
+        <v>0.08972256750876316</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1042978652904216</v>
+        <v>0.1042978652903523</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2066961720126</v>
+        <v>0.2066961720123172</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1810935816837186</v>
+        <v>0.1810935816836533</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08324249018119856</v>
+        <v>0.0832424901815208</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1826532827168089</v>
+        <v>0.182653282716614</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2241164509845996</v>
+        <v>0.2241164509845537</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1385990703703787</v>
+        <v>0.13859907037022</v>
       </c>
       <c r="K9" t="n">
-        <v>3.108099449540822</v>
+        <v>3.10809944954072</v>
       </c>
       <c r="L9" t="n">
-        <v>5.785145398535546</v>
+        <v>5.785145398535724</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8604448563833628</v>
+        <v>0.8604448563832322</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1929381406524868</v>
+        <v>0.1929381406502841</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3510112528224817</v>
+        <v>0.3510112528225729</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2588587127356877</v>
+        <v>0.2588587127358672</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1214367387620967</v>
+        <v>0.1214367387618932</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1156030660365011</v>
+        <v>0.1156030660370299</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1235856900248738</v>
+        <v>0.1235856900243957</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1042152796146961</v>
+        <v>0.1042152796148375</v>
       </c>
       <c r="U9" t="n">
-        <v>2.001033736581129</v>
+        <v>2.001033736580946</v>
       </c>
       <c r="V9" t="n">
-        <v>2.332947079837012</v>
+        <v>2.332947079836152</v>
       </c>
       <c r="W9" t="n">
-        <v>0.710068864731713</v>
+        <v>0.7100688647317335</v>
       </c>
       <c r="X9" t="n">
-        <v>0.685194913428547</v>
+        <v>0.685194913428845</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.951105022271716</v>
+        <v>0.9511050222716307</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.303661761042214</v>
+        <v>0.3036617610422454</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.08029617479810341</v>
+        <v>0.08029617479772333</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3254227567971401</v>
+        <v>0.3254227567975783</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4169747408966929</v>
+        <v>0.4169747408966085</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1023252917870078</v>
+        <v>0.1023252917867</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.07830406172122693</v>
+        <v>0.07830406172035817</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6344716416384817</v>
+        <v>0.6344716416384614</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6793631820888771</v>
+        <v>0.6793631820886427</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.08510413370827954</v>
+        <v>0.08510413370837736</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.06430742790793949</v>
+        <v>0.06430742790827643</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.08142362398282936</v>
+        <v>0.08142362398329668</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1310409644499036</v>
+        <v>0.1310409644499749</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.07005929765199302</v>
+        <v>0.07005929765222789</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.8021296487331938</v>
+        <v>0.8021296487333333</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.90015277477097</v>
+        <v>0.9001527747710005</v>
       </c>
       <c r="AO9" t="n">
         <v>2.779766644764007</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.04416229122914338</v>
+        <v>0.04416229122889256</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -1572,124 +1572,124 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3525695301398966</v>
+        <v>0.3525695301390376</v>
       </c>
       <c r="D10" t="n">
-        <v>1.323217905846814</v>
+        <v>1.323217905845996</v>
       </c>
       <c r="E10" t="n">
-        <v>1.622128068401665</v>
+        <v>1.622128068401185</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2371219745861461</v>
+        <v>0.2371219745872647</v>
       </c>
       <c r="G10" t="n">
-        <v>0.349860927101392</v>
+        <v>0.3498609271025637</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5299817740385271</v>
+        <v>0.5299817740382079</v>
       </c>
       <c r="I10" t="n">
-        <v>0.139475311408965</v>
+        <v>0.1394753114088705</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08150975216930587</v>
+        <v>0.08150975216938812</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9139504162222869</v>
+        <v>0.9139504162213186</v>
       </c>
       <c r="L10" t="n">
-        <v>1.217561999426488</v>
+        <v>1.217561999426776</v>
       </c>
       <c r="M10" t="n">
-        <v>1.323122189043901</v>
+        <v>1.323122189044389</v>
       </c>
       <c r="N10" t="n">
-        <v>1.237612207465453</v>
+        <v>1.237612207465071</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2349419844908737</v>
+        <v>0.2349419844914862</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1144129999080056</v>
+        <v>0.1144129999082915</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2344045060697751</v>
+        <v>0.2344045060692757</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1709914102734596</v>
+        <v>0.1709914102733105</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1753845438923917</v>
+        <v>0.1753845438931143</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1856350875588945</v>
+        <v>0.1856350875588099</v>
       </c>
       <c r="U10" t="n">
-        <v>3.712840029766993</v>
+        <v>3.712840029766534</v>
       </c>
       <c r="V10" t="n">
-        <v>4.716025885429111</v>
+        <v>4.716025885429451</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3357482160288748</v>
+        <v>0.3357482160285212</v>
       </c>
       <c r="X10" t="n">
-        <v>1.122405758958618</v>
+        <v>1.122405758959202</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1601843045061866</v>
+        <v>0.1601843045043869</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2033156955686783</v>
+        <v>0.2033156955689866</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1940995459525491</v>
+        <v>0.1940995459524306</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7385885581057223</v>
+        <v>0.7385885581060854</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.029147535388417</v>
+        <v>1.02914753538819</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.034001414764841</v>
+        <v>1.034001414765617</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.401520147750017</v>
+        <v>0.4015201477500467</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5507312713661753</v>
+        <v>0.550731271364723</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.5475623456560441</v>
+        <v>0.5475623456560547</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.2236514949916379</v>
+        <v>0.2236514949919249</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1617298005523418</v>
+        <v>0.1617298005525088</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.8399074010649736</v>
+        <v>0.8399074010643947</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.4687225929859146</v>
+        <v>0.4687225929851242</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.07530042584249</v>
+        <v>1.075300425842107</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.161989772006969</v>
+        <v>0.1619897720070351</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.1364980962595226</v>
+        <v>0.1364980962592667</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.668685912950441</v>
+        <v>5.66868591295058</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.05531241371555115</v>
+        <v>0.05531241371532131</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -1697,124 +1697,124 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2230133843828238</v>
+        <v>0.2230133843827093</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7177717953714566</v>
+        <v>0.7177717953713884</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7721192660632238</v>
+        <v>0.7721192660632815</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6142587451003947</v>
+        <v>0.6142587451002145</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7747565677598249</v>
+        <v>0.7747565677602081</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1097800504831041</v>
+        <v>0.1097800504830766</v>
       </c>
       <c r="I11" t="n">
-        <v>0.135017050609335</v>
+        <v>0.1350170506090757</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1414154047262786</v>
+        <v>0.1414154047252032</v>
       </c>
       <c r="K11" t="n">
-        <v>1.402012288415526</v>
+        <v>1.402012288416403</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8649992833514798</v>
+        <v>0.8649992833516078</v>
       </c>
       <c r="M11" t="n">
-        <v>1.168782645284352</v>
+        <v>1.16878264528451</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1800078589634396</v>
+        <v>0.1800078589634276</v>
       </c>
       <c r="O11" t="n">
-        <v>7.17650714140547</v>
+        <v>7.176507141405626</v>
       </c>
       <c r="P11" t="n">
-        <v>5.968120787128997</v>
+        <v>5.968120787129023</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.436332145558164</v>
+        <v>0.4363321455581212</v>
       </c>
       <c r="R11" t="n">
-        <v>0.508715720185449</v>
+        <v>0.5087157201855613</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1005898408311903</v>
+        <v>0.1005898408314013</v>
       </c>
       <c r="T11" t="n">
-        <v>0.09522162527864808</v>
+        <v>0.0952216252785883</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2823456618468966</v>
+        <v>0.282345661847018</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4855731499505795</v>
+        <v>0.4855731499511911</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3881354747845447</v>
+        <v>0.3881354747854441</v>
       </c>
       <c r="X11" t="n">
-        <v>0.162495505522343</v>
+        <v>0.162495505522212</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.095780010101361</v>
+        <v>5.095780010101424</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.993318644329857</v>
+        <v>3.993318644329816</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1011247882650079</v>
+        <v>0.1011247882649667</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.662505363259268</v>
+        <v>2.662505363259287</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1432549335036149</v>
+        <v>0.1432549335044309</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.383837381275389</v>
+        <v>0.3838373812754087</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.25716204225129</v>
+        <v>0.2571620422513069</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.422464504074217</v>
+        <v>1.422464504074113</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1250528735589893</v>
+        <v>0.1250528735589579</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1836852480536099</v>
+        <v>0.1836852480536252</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.08842918594903217</v>
+        <v>0.08842918594979091</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.2668767832638679</v>
+        <v>0.2668767832649143</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.2772482887083216</v>
+        <v>0.2772482887083699</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1435298551632781</v>
+        <v>0.1435298551631844</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1633883999149032</v>
+        <v>0.1633883999147171</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.09248544522448687</v>
+        <v>0.09248544522371255</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.450075901564637</v>
+        <v>1.450075901564536</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.07228032773375696</v>
+        <v>0.07228032773369403</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2005,7 @@
         <v>6.704083808831045</v>
       </c>
       <c r="P2" t="n">
-        <v>6.807832507356518</v>
+        <v>6.813784888308899</v>
       </c>
       <c r="Q2" t="n">
         <v>3.95786278835296</v>
@@ -2053,7 +2053,7 @@
         <v>6.767081617282463</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.472262707466511</v>
+        <v>3.497579163162714</v>
       </c>
       <c r="AG2" t="n">
         <v>7.877244783362126</v>
@@ -2080,7 +2080,7 @@
         <v>6.80185246930215</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.371405976144863</v>
+        <v>3.374092090655684</v>
       </c>
       <c r="AP2" t="n">
         <v>9.937064764658093</v>
@@ -2178,7 +2178,7 @@
         <v>6.554588851677623</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.76333974993323</v>
+        <v>4.804457473846117</v>
       </c>
       <c r="AG3" t="n">
         <v>6.810784149862564</v>
@@ -2306,7 +2306,7 @@
         <v>6.074318230493819</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.71647223214402</v>
+        <v>7.724135067393061</v>
       </c>
       <c r="AH4" t="n">
         <v>6.080235517784137</v>
@@ -2362,10 +2362,10 @@
         <v>7.093409091335675</v>
       </c>
       <c r="J5" t="n">
-        <v>3.724528179541257</v>
+        <v>3.704372201293825</v>
       </c>
       <c r="K5" t="n">
-        <v>4.808620155663472</v>
+        <v>4.768796026335816</v>
       </c>
       <c r="L5" t="n">
         <v>6.582045985190606</v>
@@ -2395,7 +2395,7 @@
         <v>7.051738575552377</v>
       </c>
       <c r="U5" t="n">
-        <v>3.563468306890869</v>
+        <v>3.584824023961904</v>
       </c>
       <c r="V5" t="n">
         <v>6.650279060808956</v>
@@ -2455,7 +2455,7 @@
         <v>6.57929428548611</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.376791451789924</v>
+        <v>2.38103455828277</v>
       </c>
       <c r="AP5" t="n">
         <v>10.06927529409359</v>
@@ -2523,7 +2523,7 @@
         <v>4.208861008179951</v>
       </c>
       <c r="V6" t="n">
-        <v>6.191320585432482</v>
+        <v>6.195249858516961</v>
       </c>
       <c r="W6" t="n">
         <v>6.512669027788688</v>
@@ -2705,7 +2705,7 @@
         <v>6.926254342737602</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.755735494124161</v>
+        <v>2.754157666230597</v>
       </c>
       <c r="AP7" t="n">
         <v>10.15036084545457</v>
@@ -2743,7 +2743,7 @@
         <v>7.062000782236041</v>
       </c>
       <c r="L8" t="n">
-        <v>4.048638179210974</v>
+        <v>4.015085461618788</v>
       </c>
       <c r="M8" t="n">
         <v>4.183912671462255</v>
@@ -2815,7 +2815,7 @@
         <v>8.021849453071566</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.840684619764326</v>
+        <v>6.856188495733317</v>
       </c>
       <c r="AK8" t="n">
         <v>7.341781724484714</v>
@@ -2895,7 +2895,7 @@
         <v>9.646912097107935</v>
       </c>
       <c r="U9" t="n">
-        <v>3.921175323182839</v>
+        <v>3.938948790938733</v>
       </c>
       <c r="V9" t="n">
         <v>6.976548430284397</v>
@@ -2955,7 +2955,7 @@
         <v>6.790223928941865</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.606838845753895</v>
+        <v>2.60841667364746</v>
       </c>
       <c r="AP9" t="n">
         <v>10.17528197291403</v>
@@ -2990,7 +2990,7 @@
         <v>5.700439718141095</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2407257573027</v>
+        <v>5.213328497028726</v>
       </c>
       <c r="L10" t="n">
         <v>5.952656521964201</v>
@@ -3053,7 +3053,7 @@
         <v>6.727920454563184</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.63840950255376</v>
+        <v>6.618607522355741</v>
       </c>
       <c r="AG10" t="n">
         <v>7.769097957534768</v>
@@ -3080,7 +3080,7 @@
         <v>6.584962500721161</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.763128209685402</v>
+        <v>1.769528474509829</v>
       </c>
       <c r="AP10" t="n">
         <v>10.10936895329262</v>
@@ -3136,7 +3136,7 @@
         <v>7.508078743192137</v>
       </c>
       <c r="R11" t="n">
-        <v>7.716631524612319</v>
+        <v>7.709055767036562</v>
       </c>
       <c r="S11" t="n">
         <v>6.375039431346932</v>
@@ -3360,124 +3360,124 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7210796950777001</v>
+        <v>0.721079695077144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6103248592406945</v>
+        <v>0.6103248592394673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.58022665175763</v>
+        <v>0.5802266517576304</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6539561535274462</v>
+        <v>0.6539561535156873</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5903575200653862</v>
+        <v>0.590357520065825</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7381054244422418</v>
+        <v>0.7381054244413832</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5799069522870515</v>
+        <v>0.5799069522870474</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6011676154430365</v>
+        <v>0.601167615433953</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5802354531070214</v>
+        <v>0.5802354531070207</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6096530371584106</v>
+        <v>0.6096530371589034</v>
       </c>
       <c r="M2" t="n">
-        <v>0.580017860212283</v>
+        <v>0.5800178602122638</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5749750830012953</v>
+        <v>0.5749750830017287</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5829027564546426</v>
+        <v>0.582902756454499</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6473185135636939</v>
+        <v>0.6473185135726891</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5727622742057868</v>
+        <v>0.5727622742058205</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5646816571179923</v>
+        <v>0.5646816571179651</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5716365975565119</v>
+        <v>0.5716365975565159</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5635990360262014</v>
+        <v>0.5635990360262098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5794880079298067</v>
+        <v>0.579488007929809</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5818682216017476</v>
+        <v>0.5818682216017481</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6342754128496103</v>
+        <v>0.6342754128495942</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6478923768446586</v>
+        <v>0.6478923768446121</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6283607915068434</v>
+        <v>0.6283607915068756</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6284592370439552</v>
+        <v>0.6284592370435595</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6257431708557825</v>
+        <v>0.6257431708555331</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6308095466837197</v>
+        <v>0.6308095466837138</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6364741290786899</v>
+        <v>0.6364741290785741</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6477294974098193</v>
+        <v>0.6477294974108069</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6361087917835435</v>
+        <v>0.6361087917836634</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.63355411107354</v>
+        <v>0.6335541110733992</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6097189096409298</v>
+        <v>0.609718909640941</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6541313607026313</v>
+        <v>0.6541313607025177</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5923695263580734</v>
+        <v>0.5923695263583638</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6313380168393488</v>
+        <v>0.6313380168393461</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6280069360095322</v>
+        <v>0.6280069360095736</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.62759359766988</v>
+        <v>0.6275935976699056</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6070076966835655</v>
+        <v>0.6070076966835659</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6134965058928087</v>
+        <v>0.6134965058928095</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5823935094852081</v>
+        <v>0.5823935094852082</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.713575414368411</v>
+        <v>0.7135754143672226</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -3485,124 +3485,124 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6553634495245143</v>
+        <v>0.6553634495269877</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5824407745180805</v>
+        <v>0.5824407745180686</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5804311701303788</v>
+        <v>0.5804311701295057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6622500883171094</v>
+        <v>0.6622500883009618</v>
       </c>
       <c r="G3" t="n">
-        <v>0.573978967421792</v>
+        <v>0.573978967421819</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5969396367495866</v>
+        <v>0.5969396367479306</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5821513394996901</v>
+        <v>0.5821513394996722</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6310199305420252</v>
+        <v>0.631019930539124</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6200130079900884</v>
+        <v>0.6200130079984291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6306034594146116</v>
+        <v>0.6306034594153861</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5842667589877752</v>
+        <v>0.584266758987775</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6893761763411397</v>
+        <v>0.6893761763409139</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5833236533646668</v>
+        <v>0.5833236533646126</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6643687916644568</v>
+        <v>0.6643687916644054</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5834718275253361</v>
+        <v>0.5834718275253594</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5972473582042838</v>
+        <v>0.5972473582060412</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5889959124773126</v>
+        <v>0.5889959124772336</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5978266190661796</v>
+        <v>0.5978266190633926</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5982469799550427</v>
+        <v>0.5982469799550384</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5771154898062236</v>
+        <v>0.5771154898062256</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7235800508875087</v>
+        <v>0.7235800508927703</v>
       </c>
       <c r="X3" t="n">
-        <v>0.661041248292734</v>
+        <v>0.6610412482947459</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7271407835486955</v>
+        <v>0.7271407835487346</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6388941984643612</v>
+        <v>0.6388941984643639</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7303500760335584</v>
+        <v>0.73035007603423</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6273673331314172</v>
+        <v>0.6273673331316052</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6107698844718299</v>
+        <v>0.6107698844725352</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6268651546188411</v>
+        <v>0.6268651546187649</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6688500701432094</v>
+        <v>0.6688500701390767</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6367036061622083</v>
+        <v>0.6367036061622954</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6190355406828715</v>
+        <v>0.619035540682591</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6316598301148344</v>
+        <v>0.6316598301148906</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6196312772486434</v>
+        <v>0.6196312772486641</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.6748850638249348</v>
+        <v>0.67488506382589</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6189389622970554</v>
+        <v>0.6189389622971446</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.7057688146368752</v>
+        <v>0.7057688146324461</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.6318799822310092</v>
+        <v>0.6318799822311084</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.6329148171416868</v>
+        <v>0.6329148171416231</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.5823764644559459</v>
+        <v>0.582376464455944</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.7483638994559847</v>
+        <v>0.7483638994559955</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -3610,124 +3610,124 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7099099856458706</v>
+        <v>0.7099099856478108</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5892433521201788</v>
+        <v>0.589243352120563</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6874433649709618</v>
+        <v>0.6874433649732374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7090322126215435</v>
+        <v>0.7090322126210251</v>
       </c>
       <c r="G4" t="n">
-        <v>0.68569998020751</v>
+        <v>0.6856999802087976</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5848635134859717</v>
+        <v>0.584863513486936</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5953362086269129</v>
+        <v>0.5953362086274486</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6454225332085163</v>
+        <v>0.6454225332096906</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6294005144519464</v>
+        <v>0.629400514454711</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6176156709209125</v>
+        <v>0.6176156709209072</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5887521524044295</v>
+        <v>0.5887521524044391</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5835819686070931</v>
+        <v>0.5835819686071043</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5822700636014816</v>
+        <v>0.5822700636015168</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6135423917980118</v>
+        <v>0.6135423917981881</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5868377280032503</v>
+        <v>0.5868377280032498</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5670315345132152</v>
+        <v>0.5670315345132195</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6115547474986422</v>
+        <v>0.6115547474976171</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5565884239715586</v>
+        <v>0.5565884239715602</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7206325693165293</v>
+        <v>0.7206325693169774</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5797171435319179</v>
+        <v>0.5797171435319182</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6213547400356438</v>
+        <v>0.6213547400356466</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6266864557496484</v>
+        <v>0.6266864557497389</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6363925242869559</v>
+        <v>0.6363925242870051</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6773343607229635</v>
+        <v>0.6773343607230028</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6356728799937735</v>
+        <v>0.6356728799938239</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6225126833765317</v>
+        <v>0.6225126833765456</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6287242280968601</v>
+        <v>0.6287242280975642</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6801387535664525</v>
+        <v>0.680138753566501</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6238687294160822</v>
+        <v>0.623868729416076</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.634681830017529</v>
+        <v>0.6346818300175409</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6089939969521851</v>
+        <v>0.6089939969522232</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7126400876824251</v>
+        <v>0.7126400876816292</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6029358133354235</v>
+        <v>0.6029358133354213</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.6255300838484107</v>
+        <v>0.6255300838484461</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6322661586423808</v>
+        <v>0.6322661586423963</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6477449714701408</v>
+        <v>0.6477449714700239</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6134657079512194</v>
+        <v>0.6134657079510597</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.7296901789917433</v>
+        <v>0.7296901789916915</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.5823938106386475</v>
+        <v>0.5823938106386478</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.66839506263298</v>
+        <v>0.6683950626338073</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -3735,124 +3735,124 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6756087998417242</v>
+        <v>0.6756087998404217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6299888101667905</v>
+        <v>0.6299888101697658</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5812398542901791</v>
+        <v>0.5812398542906554</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5860911924858649</v>
+        <v>0.5860911924848279</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6584304085348773</v>
+        <v>0.6584304085345206</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6936474982616287</v>
+        <v>0.6936474982592887</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6302532429063604</v>
+        <v>0.6302532429012709</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7358468011053171</v>
+        <v>0.7358468011041074</v>
       </c>
       <c r="K5" t="n">
-        <v>0.580773213495863</v>
+        <v>0.5807732134958631</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6142533914609807</v>
+        <v>0.6142533914612514</v>
       </c>
       <c r="M5" t="n">
-        <v>0.564403289976108</v>
+        <v>0.5644032899761071</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5639505456123535</v>
+        <v>0.56395054561236</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5936858212512733</v>
+        <v>0.5936858212517253</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5636026757526489</v>
+        <v>0.5636026757527242</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5747883629646097</v>
+        <v>0.5747883629646119</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5572397086948104</v>
+        <v>0.5572397086948057</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6139018518830227</v>
+        <v>0.6139018518861867</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6654540009326242</v>
+        <v>0.6654540009328856</v>
       </c>
       <c r="U5" t="n">
         <v>0.5781960421451835</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5615719591274119</v>
+        <v>0.561571959127412</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7660335840282715</v>
+        <v>0.7660335840282575</v>
       </c>
       <c r="X5" t="n">
         <v>0.6221571636698826</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6944072472912274</v>
+        <v>0.6944072472908719</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7551918421021077</v>
+        <v>0.7551918421003352</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7072097019642853</v>
+        <v>0.7072097019653752</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6222971643348452</v>
+        <v>0.6222971643348437</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7032943030934237</v>
+        <v>0.7032943030945842</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6218058633272422</v>
+        <v>0.6218058633269307</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6526329053329059</v>
+        <v>0.652632905333181</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6092523498828817</v>
+        <v>0.6092523498828823</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.6134506695744161</v>
+        <v>0.6134506695744232</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6244863959654888</v>
+        <v>0.6244863959654887</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6038212184416223</v>
+        <v>0.6038212184416217</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.7282817932944954</v>
+        <v>0.7282817932942195</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.795978350595327</v>
+        <v>0.7959783505953302</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6130063066309014</v>
+        <v>0.6130063066309012</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.5893359366335744</v>
+        <v>0.5893359366335739</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.6758968026568424</v>
+        <v>0.6758968026560339</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.5823954383650054</v>
+        <v>0.5823954383650061</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6071108232028588</v>
+        <v>0.6071108232063223</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -3860,124 +3860,124 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7107391177349213</v>
+        <v>0.7107391177362828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6535491315618164</v>
+        <v>0.653549131560118</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5804899190967868</v>
+        <v>0.5804899190967872</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5820590470193808</v>
+        <v>0.582059047019325</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6809266321973925</v>
+        <v>0.6809266321963361</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5782938986505987</v>
+        <v>0.5782938986506001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6116392510057682</v>
+        <v>0.611639251006746</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6404278525302221</v>
+        <v>0.6404278525316365</v>
       </c>
       <c r="K6" t="n">
-        <v>0.66135056501182</v>
+        <v>0.6613505650120547</v>
       </c>
       <c r="L6" t="n">
-        <v>0.654894296392964</v>
+        <v>0.6548942963916884</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5851038820712964</v>
+        <v>0.5851038820713016</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5678069113359039</v>
+        <v>0.5678069113359127</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5799590659891242</v>
+        <v>0.5799590659872317</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5666629127286638</v>
+        <v>0.5666629127286635</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5905754674017312</v>
+        <v>0.5905754673968857</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7022549838540288</v>
+        <v>0.7022549838524285</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5849887051571666</v>
+        <v>0.5849887051573427</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6935692317475897</v>
+        <v>0.6935692317491554</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5865328277626781</v>
+        <v>0.5865328277669368</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5632555165808353</v>
+        <v>0.5632555165808355</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6449655966147809</v>
+        <v>0.6449655966148002</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6218088452238244</v>
+        <v>0.6218088452238311</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6633078710736502</v>
+        <v>0.663307871067977</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6338025045608877</v>
+        <v>0.6338025045608879</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7069282590499086</v>
+        <v>0.7069282590500117</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6152692790348405</v>
+        <v>0.6152692790347916</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6837986848004435</v>
+        <v>0.6837986848025496</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6250198473459351</v>
+        <v>0.6250198473459417</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.6542534873896686</v>
+        <v>0.6542534873895818</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6145021738213136</v>
+        <v>0.6145021738213253</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.69419836994229</v>
+        <v>0.6941983699423495</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6127572094594655</v>
+        <v>0.6127572094595056</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7565623838212278</v>
+        <v>0.7565623838212243</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6788770861614728</v>
+        <v>0.6788770861602514</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.7534684335496705</v>
+        <v>0.7534684335496503</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.6402240211705761</v>
+        <v>0.640224021170849</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.6176096049677343</v>
+        <v>0.6176096049677328</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6347342403461267</v>
+        <v>0.6347342403461218</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.5823941652557773</v>
+        <v>0.582394165255777</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.7284498255934858</v>
+        <v>0.7284498255924311</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -3985,124 +3985,124 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7014251969481574</v>
+        <v>0.7014251969491903</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6350569954385171</v>
+        <v>0.6350569954374853</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6701681884262685</v>
+        <v>0.6701681884259455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.709436383852291</v>
+        <v>0.7094363838522506</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6900469958469209</v>
+        <v>0.690046995846488</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6194808517062659</v>
+        <v>0.619480851705834</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5852032179001158</v>
+        <v>0.5852032179001163</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5918075491279698</v>
+        <v>0.5918075491278831</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5999993284219333</v>
+        <v>0.5999993284222096</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5776407713456135</v>
+        <v>0.5776407713456286</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5849063787497767</v>
+        <v>0.5849063787497716</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5748587198741199</v>
+        <v>0.5748587198741235</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6126972279747904</v>
+        <v>0.6126972279748394</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6503563169099802</v>
+        <v>0.6503563169105916</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5863291467092128</v>
+        <v>0.5863291467092199</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5741980804648247</v>
+        <v>0.5741980804648769</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6812184820795909</v>
+        <v>0.6812184820785439</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5755561801725627</v>
+        <v>0.5755561801725717</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5792762766981063</v>
+        <v>0.5792762766980898</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5779283872571189</v>
+        <v>0.5779283872571158</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6895915451217144</v>
+        <v>0.6895915451216745</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6303147008097032</v>
+        <v>0.6303147008096963</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6558700990395908</v>
+        <v>0.6558700990398492</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.636584447563647</v>
+        <v>0.6365844475636397</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.6267495546342056</v>
+        <v>0.6267495546342192</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6301281994644859</v>
+        <v>0.6301281994644757</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6863667837944607</v>
+        <v>0.6863667837932855</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6265228659151927</v>
+        <v>0.6265228659151859</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.6481818715341114</v>
+        <v>0.6481818715340857</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6316998909123889</v>
+        <v>0.6316998909124005</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6170529301246566</v>
+        <v>0.6170529301246593</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.644884828743271</v>
+        <v>0.6448848287429311</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6892291471607164</v>
+        <v>0.6892291471606717</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6812516558389611</v>
+        <v>0.6812516558389101</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6158233126134667</v>
+        <v>0.6158233126134738</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.633614861628173</v>
+        <v>0.6336148616281627</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.681160851099903</v>
+        <v>0.6811608510997172</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.6679095849446559</v>
+        <v>0.6679095849444735</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.5823855630331718</v>
+        <v>0.5823855630331722</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6855628638738313</v>
+        <v>0.6855628638733443</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -4110,124 +4110,124 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6540152652250316</v>
+        <v>0.6540152652268403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6436574961958377</v>
+        <v>0.6436574962005452</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6140793722714938</v>
+        <v>0.614079372286561</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7039742805241078</v>
+        <v>0.7039742805368754</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6098399401411103</v>
+        <v>0.6098399401468851</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6976842655565115</v>
+        <v>0.697684265556331</v>
       </c>
       <c r="I8" t="n">
-        <v>0.576195794350554</v>
+        <v>0.5761957943505538</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5790099764943659</v>
+        <v>0.5790099764944087</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7061836663355047</v>
+        <v>0.7061836663387809</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6639164179406697</v>
+        <v>0.6639164179369549</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5793275122220026</v>
+        <v>0.5793275122220041</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5703883452479022</v>
+        <v>0.5703883452479021</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6103732449931984</v>
+        <v>0.6103732449930229</v>
       </c>
       <c r="P8" t="n">
-        <v>0.575648796669008</v>
+        <v>0.5756487966688473</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5616902562861014</v>
+        <v>0.5616902562858426</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6031680297096164</v>
+        <v>0.6031680297092672</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5850497656386503</v>
+        <v>0.5850497656389315</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5666854229065639</v>
+        <v>0.5666854229065644</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6557471963188173</v>
+        <v>0.6557471963206513</v>
       </c>
       <c r="V8" t="n">
         <v>0.5749492180563371</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6237341588571649</v>
+        <v>0.6237341588571645</v>
       </c>
       <c r="X8" t="n">
-        <v>0.6183048865663098</v>
+        <v>0.6183048865662935</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6784578955298951</v>
+        <v>0.6784578955300457</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6218140257055725</v>
+        <v>0.6218140257055876</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7565422050458454</v>
+        <v>0.7565422050457967</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6535418925626438</v>
+        <v>0.6535418925627454</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6265645616848514</v>
+        <v>0.6265645616848522</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6210652168969577</v>
+        <v>0.6210652168969549</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6259026247744209</v>
+        <v>0.6259026247744488</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.6281458545580758</v>
+        <v>0.6281458545580761</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7241748183064233</v>
+        <v>0.7241748183064013</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6210566390759686</v>
+        <v>0.6210566390759705</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6215482332490134</v>
+        <v>0.6215482332522118</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.6238395108129793</v>
+        <v>0.6238395108129807</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.6128534661189525</v>
+        <v>0.6128534661187247</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6109571591533112</v>
+        <v>0.6109571591528496</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.6124670095759744</v>
+        <v>0.6124670095759733</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6181096702663885</v>
+        <v>0.6181096702663879</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.5823925621765006</v>
+        <v>0.5823925621765004</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6929148007501916</v>
+        <v>0.6929148007481055</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -4235,124 +4235,124 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6916756358023869</v>
+        <v>0.6916756358014187</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7145183092350489</v>
+        <v>0.7145183092295182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6748245508516674</v>
+        <v>0.6748245508513606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5776377033250719</v>
+        <v>0.5776377033250404</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6390632911860689</v>
+        <v>0.6390632911801409</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5959967749032388</v>
+        <v>0.5959967749030539</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5778736720796155</v>
+        <v>0.5778736720795935</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6302274589003658</v>
+        <v>0.6302274588995497</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7200885103189173</v>
+        <v>0.720088510318955</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6589731718925509</v>
+        <v>0.6589731718925643</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5667596472650821</v>
+        <v>0.5667596472650812</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6212656306982753</v>
+        <v>0.6212656306986541</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5881818897573122</v>
+        <v>0.5881818897573133</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5561376996451529</v>
+        <v>0.5561376996451459</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7183211409123179</v>
+        <v>0.7183211409084428</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5772555301475917</v>
+        <v>0.5772555301458505</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6532132314210174</v>
+        <v>0.6532132314232676</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6715663478801088</v>
+        <v>0.671566347878935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6699713938513415</v>
+        <v>0.6699713938456023</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5728596645624852</v>
+        <v>0.5728596645624838</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6226412954295032</v>
+        <v>0.6226412954294699</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6257403615975704</v>
+        <v>0.625740361597715</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.672754251231344</v>
+        <v>0.6727542512313134</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6305916937544076</v>
+        <v>0.6305916937543712</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6233378707121673</v>
+        <v>0.6233378707111654</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6500722254711895</v>
+        <v>0.6500722254708987</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6325660376032898</v>
+        <v>0.6325660376032969</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6870682279409761</v>
+        <v>0.6870682279444832</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6191971758112544</v>
+        <v>0.6191971758096302</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6234664301449868</v>
+        <v>0.6234664301449758</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6045764139920325</v>
+        <v>0.6045764139920291</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.6842339481731561</v>
+        <v>0.6842339481739618</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6141426005693053</v>
+        <v>0.6141426005710816</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6860745433330653</v>
+        <v>0.6860745433309644</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.6783493590983605</v>
+        <v>0.6783493590973972</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6108637633633417</v>
+        <v>0.6108637633634737</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7410346002828812</v>
+        <v>0.7410346002828412</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6279143485294495</v>
+        <v>0.6279143485294628</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.5823745065725472</v>
+        <v>0.5823745065725473</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7181589886898142</v>
+        <v>0.7181589886882832</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -4360,124 +4360,124 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6969857692402491</v>
+        <v>0.6969857692432195</v>
       </c>
       <c r="D10" t="n">
-        <v>0.579944175104558</v>
+        <v>0.5799441751044594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5826884829298036</v>
+        <v>0.582688482929804</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5920463438936212</v>
+        <v>0.5920463438922053</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6359142421209052</v>
+        <v>0.6359142421221801</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6667615900526477</v>
+        <v>0.6667615900525938</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5839646372554527</v>
+        <v>0.5839646372548785</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6410217776594259</v>
+        <v>0.6410217776652413</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5815736678972654</v>
+        <v>0.5815736678983794</v>
       </c>
       <c r="L10" t="n">
-        <v>0.621117207159864</v>
+        <v>0.6211172071598623</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5834318250463107</v>
+        <v>0.5834318250462102</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5734737949942754</v>
+        <v>0.5734737949942771</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7123085413292646</v>
+        <v>0.7123085413306287</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6360575205632472</v>
+        <v>0.6360575205666783</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5880424603584059</v>
+        <v>0.5880424603579336</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6075180451638946</v>
+        <v>0.607518045164708</v>
       </c>
       <c r="S10" t="n">
-        <v>0.62992292228893</v>
+        <v>0.6299229222853668</v>
       </c>
       <c r="T10" t="n">
-        <v>0.622764345349713</v>
+        <v>0.6227643453467525</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5800861175005406</v>
+        <v>0.5800861175006345</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5757395630979414</v>
+        <v>0.5757395630979402</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6294317580556015</v>
+        <v>0.6294317580556468</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7246381096711086</v>
+        <v>0.7246381096709169</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6553387060148139</v>
+        <v>0.655338706020511</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6199271117252086</v>
+        <v>0.6199271117252929</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6635949211896361</v>
+        <v>0.6635949211878329</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6293461649279559</v>
+        <v>0.6293461649279888</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6384311945518344</v>
+        <v>0.6384311945518276</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.622969561421245</v>
+        <v>0.6229695614212402</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6264634968581149</v>
+        <v>0.626463496858123</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6368911540668861</v>
+        <v>0.6368911540670299</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6104178067190601</v>
+        <v>0.6104178067190529</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6377286980525665</v>
+        <v>0.637728698052509</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6373230715052685</v>
+        <v>0.637323071504414</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6517685928938385</v>
+        <v>0.6517685928937352</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.6097217607850106</v>
+        <v>0.6097217607850298</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.6232650502702465</v>
+        <v>0.6232650502702467</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.606994207603574</v>
+        <v>0.6069942076039382</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.7039703919484985</v>
+        <v>0.7039703919494886</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.5823948215534749</v>
+        <v>0.5823948215534781</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6608090659140309</v>
+        <v>0.6608090659206887</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -4485,124 +4485,124 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6851456640132447</v>
+        <v>0.6851456640133238</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6295167250156809</v>
+        <v>0.6295167250152885</v>
       </c>
       <c r="E11" t="n">
-        <v>0.574803221510062</v>
+        <v>0.5748032215100679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6305808928989844</v>
+        <v>0.6305808928950923</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5814630274589901</v>
+        <v>0.5814630274589894</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6310747739002509</v>
+        <v>0.631074773898302</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6072671701658456</v>
+        <v>0.6072671701683021</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6114715438202095</v>
+        <v>0.6114715438215953</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6829238745788246</v>
+        <v>0.6829238745791202</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5773057160699574</v>
+        <v>0.5773057160699498</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5838548054723333</v>
+        <v>0.583854805472333</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5643414149411083</v>
+        <v>0.5643414149414073</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5812070874210213</v>
+        <v>0.5812070874208871</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5694350375441219</v>
+        <v>0.5694350375441222</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6005731380060789</v>
+        <v>0.6005731380038044</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5693091083230959</v>
+        <v>0.5693091083230969</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6083304630990497</v>
+        <v>0.6083304631012015</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6456445012917197</v>
+        <v>0.6456445012899245</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6257991959233403</v>
+        <v>0.6257991959271466</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5858179790687931</v>
+        <v>0.5858179790687146</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6303812205830547</v>
+        <v>0.6303812205830103</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7233628233775443</v>
+        <v>0.7233628233780695</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6144721844745006</v>
+        <v>0.6144721844745018</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6320860269504081</v>
+        <v>0.6320860269504083</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7096984751591722</v>
+        <v>0.7096984751580063</v>
       </c>
       <c r="AB11" t="n">
         <v>0.6335147105434684</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7193269691512254</v>
+        <v>0.7193269691508363</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6365768316971866</v>
+        <v>0.6365768316971196</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6318238880244557</v>
+        <v>0.6318238880244552</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6305550331008389</v>
+        <v>0.6305550331008182</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.6158718825991374</v>
+        <v>0.6158718825990721</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6177984659935375</v>
+        <v>0.6177984659931957</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.7169631008022378</v>
+        <v>0.7169631008011392</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.6414273869833091</v>
+        <v>0.6414273869832049</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6077269998453403</v>
+        <v>0.6077269998457413</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.629020086299972</v>
+        <v>0.6290200862999739</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7030999748498117</v>
+        <v>0.7030999748496085</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.7167827363343823</v>
+        <v>0.7167827363353304</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.5823863410900568</v>
+        <v>0.5823863410900573</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.6242845452443576</v>
+        <v>0.6242845452487225</v>
       </c>
     </row>
   </sheetData>
